--- a/AAII_Financials/Quarterly/GSHHY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSHHY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1134300</v>
+        <v>1139300</v>
       </c>
       <c r="E8" s="3">
-        <v>1672000</v>
+        <v>1679300</v>
       </c>
       <c r="F8" s="3">
-        <v>1549600</v>
+        <v>1556400</v>
       </c>
       <c r="G8" s="3">
-        <v>1566900</v>
+        <v>1573700</v>
       </c>
       <c r="H8" s="3">
-        <v>1449400</v>
+        <v>1455700</v>
       </c>
       <c r="I8" s="3">
-        <v>1508900</v>
+        <v>1515500</v>
       </c>
       <c r="J8" s="3">
-        <v>1279600</v>
+        <v>1285200</v>
       </c>
       <c r="K8" s="3">
         <v>1399800</v>
@@ -749,25 +749,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1250900</v>
+        <v>1256300</v>
       </c>
       <c r="E9" s="3">
-        <v>1661500</v>
+        <v>1668700</v>
       </c>
       <c r="F9" s="3">
-        <v>1392500</v>
+        <v>1398500</v>
       </c>
       <c r="G9" s="3">
-        <v>1521700</v>
+        <v>1528300</v>
       </c>
       <c r="H9" s="3">
-        <v>1316600</v>
+        <v>1322300</v>
       </c>
       <c r="I9" s="3">
-        <v>1397700</v>
+        <v>1403700</v>
       </c>
       <c r="J9" s="3">
-        <v>1178100</v>
+        <v>1183200</v>
       </c>
       <c r="K9" s="3">
         <v>1288900</v>
@@ -778,25 +778,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-116500</v>
+        <v>-117000</v>
       </c>
       <c r="E10" s="3">
         <v>10500</v>
       </c>
       <c r="F10" s="3">
-        <v>157100</v>
+        <v>157800</v>
       </c>
       <c r="G10" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="H10" s="3">
-        <v>132800</v>
+        <v>133400</v>
       </c>
       <c r="I10" s="3">
-        <v>111300</v>
+        <v>111700</v>
       </c>
       <c r="J10" s="3">
-        <v>101500</v>
+        <v>102000</v>
       </c>
       <c r="K10" s="3">
         <v>110900</v>
@@ -946,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1250200</v>
+        <v>1255600</v>
       </c>
       <c r="E17" s="3">
-        <v>1669700</v>
+        <v>1677000</v>
       </c>
       <c r="F17" s="3">
-        <v>1388700</v>
+        <v>1394700</v>
       </c>
       <c r="G17" s="3">
-        <v>1537100</v>
+        <v>1543800</v>
       </c>
       <c r="H17" s="3">
-        <v>1317500</v>
+        <v>1323200</v>
       </c>
       <c r="I17" s="3">
-        <v>1405600</v>
+        <v>1411700</v>
       </c>
       <c r="J17" s="3">
-        <v>1177500</v>
+        <v>1182600</v>
       </c>
       <c r="K17" s="3">
         <v>1303100</v>
@@ -975,25 +975,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-115800</v>
+        <v>-116300</v>
       </c>
       <c r="E18" s="3">
         <v>2300</v>
       </c>
       <c r="F18" s="3">
-        <v>160900</v>
+        <v>161600</v>
       </c>
       <c r="G18" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="H18" s="3">
-        <v>131800</v>
+        <v>132400</v>
       </c>
       <c r="I18" s="3">
-        <v>103300</v>
+        <v>103800</v>
       </c>
       <c r="J18" s="3">
-        <v>102100</v>
+        <v>102600</v>
       </c>
       <c r="K18" s="3">
         <v>96700</v>
@@ -1023,7 +1023,7 @@
         <v>-3500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
@@ -1046,25 +1046,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E21" s="3">
         <v>700</v>
       </c>
       <c r="F21" s="3">
-        <v>283300</v>
+        <v>284500</v>
       </c>
       <c r="G21" s="3">
-        <v>35500</v>
+        <v>35700</v>
       </c>
       <c r="H21" s="3">
-        <v>252400</v>
+        <v>253500</v>
       </c>
       <c r="I21" s="3">
-        <v>87900</v>
+        <v>88200</v>
       </c>
       <c r="J21" s="3">
-        <v>236200</v>
+        <v>237200</v>
       </c>
       <c r="K21" s="3">
         <v>110400</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-119500</v>
+        <v>-120000</v>
       </c>
       <c r="E23" s="3">
         <v>-1200</v>
       </c>
       <c r="F23" s="3">
-        <v>154700</v>
+        <v>155400</v>
       </c>
       <c r="G23" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="H23" s="3">
-        <v>132800</v>
+        <v>133400</v>
       </c>
       <c r="I23" s="3">
-        <v>102600</v>
+        <v>103000</v>
       </c>
       <c r="J23" s="3">
-        <v>102400</v>
+        <v>102800</v>
       </c>
       <c r="K23" s="3">
         <v>96900</v>
@@ -1133,25 +1133,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26300</v>
+        <v>-26400</v>
       </c>
       <c r="E24" s="3">
         <v>700</v>
       </c>
       <c r="F24" s="3">
-        <v>39100</v>
+        <v>39200</v>
       </c>
       <c r="G24" s="3">
         <v>10400</v>
       </c>
       <c r="H24" s="3">
-        <v>33700</v>
+        <v>33900</v>
       </c>
       <c r="I24" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="J24" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="K24" s="3">
         <v>24800</v>
@@ -1191,25 +1191,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-93200</v>
+        <v>-93600</v>
       </c>
       <c r="E26" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F26" s="3">
-        <v>115600</v>
+        <v>116100</v>
       </c>
       <c r="G26" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="H26" s="3">
-        <v>99100</v>
+        <v>99500</v>
       </c>
       <c r="I26" s="3">
-        <v>76900</v>
+        <v>77200</v>
       </c>
       <c r="J26" s="3">
-        <v>77000</v>
+        <v>77300</v>
       </c>
       <c r="K26" s="3">
         <v>72100</v>
@@ -1220,25 +1220,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-93400</v>
+        <v>-93800</v>
       </c>
       <c r="E27" s="3">
         <v>-2100</v>
       </c>
       <c r="F27" s="3">
-        <v>115900</v>
+        <v>116400</v>
       </c>
       <c r="G27" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="H27" s="3">
-        <v>99500</v>
+        <v>99900</v>
       </c>
       <c r="I27" s="3">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="J27" s="3">
-        <v>77400</v>
+        <v>77700</v>
       </c>
       <c r="K27" s="3">
         <v>72500</v>
@@ -1371,7 +1371,7 @@
         <v>3500</v>
       </c>
       <c r="F32" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
@@ -1394,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-93400</v>
+        <v>-93800</v>
       </c>
       <c r="E33" s="3">
         <v>-2100</v>
       </c>
       <c r="F33" s="3">
-        <v>115900</v>
+        <v>116400</v>
       </c>
       <c r="G33" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="H33" s="3">
-        <v>99500</v>
+        <v>99900</v>
       </c>
       <c r="I33" s="3">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="J33" s="3">
-        <v>77400</v>
+        <v>77700</v>
       </c>
       <c r="K33" s="3">
         <v>72500</v>
@@ -1452,25 +1452,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-93400</v>
+        <v>-93800</v>
       </c>
       <c r="E35" s="3">
         <v>-2100</v>
       </c>
       <c r="F35" s="3">
-        <v>115900</v>
+        <v>116400</v>
       </c>
       <c r="G35" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="H35" s="3">
-        <v>99500</v>
+        <v>99900</v>
       </c>
       <c r="I35" s="3">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="J35" s="3">
-        <v>77400</v>
+        <v>77700</v>
       </c>
       <c r="K35" s="3">
         <v>72500</v>
@@ -1541,25 +1541,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>225100</v>
+        <v>226000</v>
       </c>
       <c r="E41" s="3">
-        <v>237700</v>
+        <v>238700</v>
       </c>
       <c r="F41" s="3">
-        <v>292200</v>
+        <v>293500</v>
       </c>
       <c r="G41" s="3">
-        <v>264500</v>
+        <v>265600</v>
       </c>
       <c r="H41" s="3">
-        <v>294100</v>
+        <v>295300</v>
       </c>
       <c r="I41" s="3">
-        <v>176500</v>
+        <v>177300</v>
       </c>
       <c r="J41" s="3">
-        <v>213200</v>
+        <v>214100</v>
       </c>
       <c r="K41" s="3">
         <v>206800</v>
@@ -1570,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>1400</v>
       </c>
       <c r="G42" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="H42" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="I42" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J42" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="K42" s="3">
         <v>16400</v>
@@ -1599,25 +1599,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>704300</v>
+        <v>707400</v>
       </c>
       <c r="E43" s="3">
-        <v>684900</v>
+        <v>687800</v>
       </c>
       <c r="F43" s="3">
-        <v>623900</v>
+        <v>626600</v>
       </c>
       <c r="G43" s="3">
-        <v>587400</v>
+        <v>590000</v>
       </c>
       <c r="H43" s="3">
-        <v>636800</v>
+        <v>639600</v>
       </c>
       <c r="I43" s="3">
-        <v>630100</v>
+        <v>632800</v>
       </c>
       <c r="J43" s="3">
-        <v>503800</v>
+        <v>506000</v>
       </c>
       <c r="K43" s="3">
         <v>511800</v>
@@ -1628,25 +1628,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E44" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="F44" s="3">
-        <v>46600</v>
+        <v>46800</v>
       </c>
       <c r="G44" s="3">
-        <v>45100</v>
+        <v>45300</v>
       </c>
       <c r="H44" s="3">
-        <v>53000</v>
+        <v>53200</v>
       </c>
       <c r="I44" s="3">
-        <v>50300</v>
+        <v>50500</v>
       </c>
       <c r="J44" s="3">
-        <v>50400</v>
+        <v>50700</v>
       </c>
       <c r="K44" s="3">
         <v>50600</v>
@@ -1657,25 +1657,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40000</v>
+        <v>40200</v>
       </c>
       <c r="E45" s="3">
-        <v>56000</v>
+        <v>56300</v>
       </c>
       <c r="F45" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="G45" s="3">
-        <v>53400</v>
+        <v>53600</v>
       </c>
       <c r="H45" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="I45" s="3">
-        <v>48100</v>
+        <v>48300</v>
       </c>
       <c r="J45" s="3">
-        <v>49700</v>
+        <v>49900</v>
       </c>
       <c r="K45" s="3">
         <v>50300</v>
@@ -1686,25 +1686,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1027600</v>
+        <v>1032100</v>
       </c>
       <c r="E46" s="3">
-        <v>1019800</v>
+        <v>1024200</v>
       </c>
       <c r="F46" s="3">
-        <v>998900</v>
+        <v>1003200</v>
       </c>
       <c r="G46" s="3">
-        <v>967000</v>
+        <v>971200</v>
       </c>
       <c r="H46" s="3">
-        <v>1037600</v>
+        <v>1042100</v>
       </c>
       <c r="I46" s="3">
-        <v>921500</v>
+        <v>925500</v>
       </c>
       <c r="J46" s="3">
-        <v>833800</v>
+        <v>837500</v>
       </c>
       <c r="K46" s="3">
         <v>835900</v>
@@ -1715,25 +1715,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84600</v>
+        <v>85000</v>
       </c>
       <c r="E47" s="3">
-        <v>83900</v>
+        <v>84300</v>
       </c>
       <c r="F47" s="3">
-        <v>83600</v>
+        <v>84000</v>
       </c>
       <c r="G47" s="3">
-        <v>80800</v>
+        <v>81200</v>
       </c>
       <c r="H47" s="3">
-        <v>76400</v>
+        <v>76700</v>
       </c>
       <c r="I47" s="3">
-        <v>76400</v>
+        <v>76700</v>
       </c>
       <c r="J47" s="3">
-        <v>39600</v>
+        <v>39800</v>
       </c>
       <c r="K47" s="3">
         <v>38500</v>
@@ -1744,25 +1744,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4314400</v>
+        <v>4333100</v>
       </c>
       <c r="E48" s="3">
-        <v>4415100</v>
+        <v>4434300</v>
       </c>
       <c r="F48" s="3">
-        <v>4360400</v>
+        <v>4379300</v>
       </c>
       <c r="G48" s="3">
-        <v>3964900</v>
+        <v>3982100</v>
       </c>
       <c r="H48" s="3">
-        <v>3780000</v>
+        <v>3796400</v>
       </c>
       <c r="I48" s="3">
-        <v>3818500</v>
+        <v>3835100</v>
       </c>
       <c r="J48" s="3">
-        <v>3734600</v>
+        <v>3750800</v>
       </c>
       <c r="K48" s="3">
         <v>3822500</v>
@@ -1773,25 +1773,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="E49" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="F49" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="G49" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="H49" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="I49" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="J49" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="K49" s="3">
         <v>42800</v>
@@ -1860,25 +1860,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>76000</v>
+        <v>76300</v>
       </c>
       <c r="E52" s="3">
-        <v>50500</v>
+        <v>50700</v>
       </c>
       <c r="F52" s="3">
-        <v>42700</v>
+        <v>42800</v>
       </c>
       <c r="G52" s="3">
-        <v>329900</v>
+        <v>331300</v>
       </c>
       <c r="H52" s="3">
-        <v>312100</v>
+        <v>313400</v>
       </c>
       <c r="I52" s="3">
-        <v>312000</v>
+        <v>313300</v>
       </c>
       <c r="J52" s="3">
-        <v>259600</v>
+        <v>260800</v>
       </c>
       <c r="K52" s="3">
         <v>260500</v>
@@ -1918,25 +1918,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5545300</v>
+        <v>5569400</v>
       </c>
       <c r="E54" s="3">
-        <v>5612200</v>
+        <v>5636500</v>
       </c>
       <c r="F54" s="3">
-        <v>5528300</v>
+        <v>5552300</v>
       </c>
       <c r="G54" s="3">
-        <v>5385400</v>
+        <v>5408800</v>
       </c>
       <c r="H54" s="3">
-        <v>5248800</v>
+        <v>5271600</v>
       </c>
       <c r="I54" s="3">
-        <v>5171200</v>
+        <v>5193600</v>
       </c>
       <c r="J54" s="3">
-        <v>4910500</v>
+        <v>4931800</v>
       </c>
       <c r="K54" s="3">
         <v>5000200</v>
@@ -1973,25 +1973,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>257900</v>
+        <v>259100</v>
       </c>
       <c r="E57" s="3">
-        <v>234000</v>
+        <v>235000</v>
       </c>
       <c r="F57" s="3">
-        <v>209800</v>
+        <v>210700</v>
       </c>
       <c r="G57" s="3">
-        <v>219200</v>
+        <v>220100</v>
       </c>
       <c r="H57" s="3">
-        <v>170200</v>
+        <v>170900</v>
       </c>
       <c r="I57" s="3">
-        <v>201600</v>
+        <v>202400</v>
       </c>
       <c r="J57" s="3">
-        <v>158100</v>
+        <v>158800</v>
       </c>
       <c r="K57" s="3">
         <v>174000</v>
@@ -2031,25 +2031,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>808000</v>
+        <v>811500</v>
       </c>
       <c r="E59" s="3">
-        <v>742400</v>
+        <v>745600</v>
       </c>
       <c r="F59" s="3">
-        <v>680600</v>
+        <v>683500</v>
       </c>
       <c r="G59" s="3">
-        <v>757800</v>
+        <v>761100</v>
       </c>
       <c r="H59" s="3">
-        <v>687800</v>
+        <v>690800</v>
       </c>
       <c r="I59" s="3">
-        <v>584100</v>
+        <v>586700</v>
       </c>
       <c r="J59" s="3">
-        <v>471200</v>
+        <v>473200</v>
       </c>
       <c r="K59" s="3">
         <v>535600</v>
@@ -2060,25 +2060,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1074800</v>
+        <v>1079500</v>
       </c>
       <c r="E60" s="3">
-        <v>985300</v>
+        <v>989600</v>
       </c>
       <c r="F60" s="3">
-        <v>899200</v>
+        <v>903100</v>
       </c>
       <c r="G60" s="3">
-        <v>977000</v>
+        <v>981200</v>
       </c>
       <c r="H60" s="3">
-        <v>858000</v>
+        <v>861700</v>
       </c>
       <c r="I60" s="3">
-        <v>785700</v>
+        <v>789100</v>
       </c>
       <c r="J60" s="3">
-        <v>629300</v>
+        <v>632000</v>
       </c>
       <c r="K60" s="3">
         <v>709600</v>
@@ -2089,13 +2089,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>170000</v>
+        <v>170700</v>
       </c>
       <c r="E61" s="3">
-        <v>170100</v>
+        <v>170800</v>
       </c>
       <c r="F61" s="3">
-        <v>170100</v>
+        <v>170900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2118,25 +2118,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="E62" s="3">
-        <v>24200</v>
+        <v>24300</v>
       </c>
       <c r="F62" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="G62" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="H62" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="I62" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="J62" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="K62" s="3">
         <v>26700</v>
@@ -2234,25 +2234,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1265200</v>
+        <v>1270700</v>
       </c>
       <c r="E66" s="3">
-        <v>1174000</v>
+        <v>1179100</v>
       </c>
       <c r="F66" s="3">
-        <v>1088000</v>
+        <v>1092700</v>
       </c>
       <c r="G66" s="3">
-        <v>996400</v>
+        <v>1000700</v>
       </c>
       <c r="H66" s="3">
-        <v>879500</v>
+        <v>883400</v>
       </c>
       <c r="I66" s="3">
-        <v>807700</v>
+        <v>811200</v>
       </c>
       <c r="J66" s="3">
-        <v>651700</v>
+        <v>654500</v>
       </c>
       <c r="K66" s="3">
         <v>732600</v>
@@ -2392,25 +2392,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1416000</v>
+        <v>1422200</v>
       </c>
       <c r="E72" s="3">
-        <v>1574100</v>
+        <v>1580900</v>
       </c>
       <c r="F72" s="3">
-        <v>1576200</v>
+        <v>1583000</v>
       </c>
       <c r="G72" s="3">
-        <v>1524900</v>
+        <v>1531500</v>
       </c>
       <c r="H72" s="3">
-        <v>1505100</v>
+        <v>1511600</v>
       </c>
       <c r="I72" s="3">
-        <v>1499400</v>
+        <v>1505900</v>
       </c>
       <c r="J72" s="3">
-        <v>1422300</v>
+        <v>1428500</v>
       </c>
       <c r="K72" s="3">
         <v>1431100</v>
@@ -2508,25 +2508,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4280200</v>
+        <v>4298700</v>
       </c>
       <c r="E76" s="3">
-        <v>4438200</v>
+        <v>4457500</v>
       </c>
       <c r="F76" s="3">
-        <v>4440300</v>
+        <v>4459600</v>
       </c>
       <c r="G76" s="3">
-        <v>4389000</v>
+        <v>4408100</v>
       </c>
       <c r="H76" s="3">
-        <v>4369300</v>
+        <v>4388200</v>
       </c>
       <c r="I76" s="3">
-        <v>4363500</v>
+        <v>4382400</v>
       </c>
       <c r="J76" s="3">
-        <v>4258800</v>
+        <v>4277200</v>
       </c>
       <c r="K76" s="3">
         <v>4267600</v>
@@ -2600,25 +2600,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-93400</v>
+        <v>-93800</v>
       </c>
       <c r="E81" s="3">
         <v>-2100</v>
       </c>
       <c r="F81" s="3">
-        <v>115900</v>
+        <v>116400</v>
       </c>
       <c r="G81" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="H81" s="3">
-        <v>99500</v>
+        <v>99900</v>
       </c>
       <c r="I81" s="3">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="J81" s="3">
-        <v>77400</v>
+        <v>77700</v>
       </c>
       <c r="K81" s="3">
         <v>72500</v>
@@ -2816,25 +2816,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80000</v>
+        <v>80300</v>
       </c>
       <c r="E89" s="3">
-        <v>156700</v>
+        <v>157300</v>
       </c>
       <c r="F89" s="3">
-        <v>207700</v>
+        <v>208600</v>
       </c>
       <c r="G89" s="3">
-        <v>274700</v>
+        <v>275900</v>
       </c>
       <c r="H89" s="3">
-        <v>221400</v>
+        <v>222300</v>
       </c>
       <c r="I89" s="3">
-        <v>211700</v>
+        <v>212600</v>
       </c>
       <c r="J89" s="3">
-        <v>189100</v>
+        <v>189900</v>
       </c>
       <c r="K89" s="3">
         <v>146900</v>
@@ -2858,25 +2858,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70200</v>
+        <v>-70500</v>
       </c>
       <c r="E91" s="3">
-        <v>-159100</v>
+        <v>-159800</v>
       </c>
       <c r="F91" s="3">
-        <v>-212300</v>
+        <v>-213200</v>
       </c>
       <c r="G91" s="3">
-        <v>-223400</v>
+        <v>-224400</v>
       </c>
       <c r="H91" s="3">
-        <v>-184800</v>
+        <v>-185600</v>
       </c>
       <c r="I91" s="3">
-        <v>-163200</v>
+        <v>-163900</v>
       </c>
       <c r="J91" s="3">
-        <v>-182700</v>
+        <v>-183500</v>
       </c>
       <c r="K91" s="3">
         <v>-137400</v>
@@ -2945,25 +2945,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-88000</v>
+        <v>-88400</v>
       </c>
       <c r="E94" s="3">
-        <v>-137500</v>
+        <v>-138100</v>
       </c>
       <c r="F94" s="3">
-        <v>-180000</v>
+        <v>-180800</v>
       </c>
       <c r="G94" s="3">
-        <v>-217600</v>
+        <v>-218500</v>
       </c>
       <c r="H94" s="3">
-        <v>-103800</v>
+        <v>-104300</v>
       </c>
       <c r="I94" s="3">
-        <v>-161700</v>
+        <v>-162500</v>
       </c>
       <c r="J94" s="3">
-        <v>-182700</v>
+        <v>-183500</v>
       </c>
       <c r="K94" s="3">
         <v>-132300</v>
@@ -2990,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-64700</v>
+        <v>-64900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-86200</v>
+        <v>-86600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-86600</v>
+        <v>-87000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3106,19 +3106,19 @@
         <v>-4600</v>
       </c>
       <c r="E100" s="3">
-        <v>-73700</v>
+        <v>-74000</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-86700</v>
+        <v>-87100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-86600</v>
+        <v>-87000</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3161,25 +3161,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="E102" s="3">
-        <v>-54600</v>
+        <v>-54800</v>
       </c>
       <c r="F102" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="G102" s="3">
-        <v>-29600</v>
+        <v>-29700</v>
       </c>
       <c r="H102" s="3">
-        <v>117500</v>
+        <v>118000</v>
       </c>
       <c r="I102" s="3">
-        <v>-36600</v>
+        <v>-36800</v>
       </c>
       <c r="J102" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="K102" s="3">
         <v>-71600</v>

--- a/AAII_Financials/Quarterly/GSHHY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSHHY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>GSHHY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1139300</v>
+        <v>1387300</v>
       </c>
       <c r="E8" s="3">
-        <v>1679300</v>
+        <v>1163400</v>
       </c>
       <c r="F8" s="3">
-        <v>1556400</v>
+        <v>1714800</v>
       </c>
       <c r="G8" s="3">
-        <v>1573700</v>
+        <v>1589300</v>
       </c>
       <c r="H8" s="3">
-        <v>1455700</v>
+        <v>1606900</v>
       </c>
       <c r="I8" s="3">
-        <v>1515500</v>
+        <v>1486400</v>
       </c>
       <c r="J8" s="3">
+        <v>1547500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1285200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1399800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1256300</v>
+        <v>1554500</v>
       </c>
       <c r="E9" s="3">
-        <v>1668700</v>
+        <v>1282800</v>
       </c>
       <c r="F9" s="3">
-        <v>1398500</v>
+        <v>1704000</v>
       </c>
       <c r="G9" s="3">
-        <v>1528300</v>
+        <v>1428100</v>
       </c>
       <c r="H9" s="3">
-        <v>1322300</v>
+        <v>1560600</v>
       </c>
       <c r="I9" s="3">
-        <v>1403700</v>
+        <v>1350200</v>
       </c>
       <c r="J9" s="3">
+        <v>1433400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1183200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1288900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-117000</v>
+        <v>-167200</v>
       </c>
       <c r="E10" s="3">
-        <v>10500</v>
+        <v>-119500</v>
       </c>
       <c r="F10" s="3">
-        <v>157800</v>
+        <v>10800</v>
       </c>
       <c r="G10" s="3">
-        <v>45400</v>
+        <v>161200</v>
       </c>
       <c r="H10" s="3">
-        <v>133400</v>
+        <v>46300</v>
       </c>
       <c r="I10" s="3">
-        <v>111700</v>
+        <v>136200</v>
       </c>
       <c r="J10" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K10" s="3">
         <v>102000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>110900</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,28 +889,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -901,8 +921,11 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1255600</v>
+        <v>1370300</v>
       </c>
       <c r="E17" s="3">
-        <v>1677000</v>
+        <v>1282200</v>
       </c>
       <c r="F17" s="3">
-        <v>1394700</v>
+        <v>1712400</v>
       </c>
       <c r="G17" s="3">
-        <v>1543800</v>
+        <v>1424200</v>
       </c>
       <c r="H17" s="3">
-        <v>1323200</v>
+        <v>1576400</v>
       </c>
       <c r="I17" s="3">
-        <v>1411700</v>
+        <v>1351200</v>
       </c>
       <c r="J17" s="3">
+        <v>1441600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1182600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1303100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-116300</v>
+        <v>17000</v>
       </c>
       <c r="E18" s="3">
+        <v>-118800</v>
+      </c>
+      <c r="F18" s="3">
         <v>2300</v>
       </c>
-      <c r="F18" s="3">
-        <v>161600</v>
-      </c>
       <c r="G18" s="3">
-        <v>29900</v>
+        <v>165000</v>
       </c>
       <c r="H18" s="3">
-        <v>132400</v>
+        <v>30500</v>
       </c>
       <c r="I18" s="3">
-        <v>103800</v>
+        <v>135200</v>
       </c>
       <c r="J18" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K18" s="3">
         <v>102600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,66 +1044,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3700</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3500</v>
+        <v>-3800</v>
       </c>
       <c r="F20" s="3">
-        <v>-6300</v>
+        <v>-3600</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11900</v>
+        <v>14900</v>
       </c>
       <c r="E21" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
-        <v>284500</v>
-      </c>
       <c r="G21" s="3">
-        <v>35700</v>
+        <v>290500</v>
       </c>
       <c r="H21" s="3">
-        <v>253500</v>
+        <v>36400</v>
       </c>
       <c r="I21" s="3">
-        <v>88200</v>
+        <v>258800</v>
       </c>
       <c r="J21" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K21" s="3">
         <v>237200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110400</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,66 +1138,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-120000</v>
+        <v>14800</v>
       </c>
       <c r="E23" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
-        <v>155400</v>
-      </c>
       <c r="G23" s="3">
-        <v>29900</v>
+        <v>158600</v>
       </c>
       <c r="H23" s="3">
-        <v>133400</v>
+        <v>30500</v>
       </c>
       <c r="I23" s="3">
-        <v>103000</v>
+        <v>136200</v>
       </c>
       <c r="J23" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K23" s="3">
         <v>102800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>96900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-26400</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>39200</v>
-      </c>
       <c r="G24" s="3">
-        <v>10400</v>
+        <v>40100</v>
       </c>
       <c r="H24" s="3">
-        <v>33900</v>
+        <v>10600</v>
       </c>
       <c r="I24" s="3">
-        <v>25800</v>
+        <v>34600</v>
       </c>
       <c r="J24" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K24" s="3">
         <v>25500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-93600</v>
+        <v>8600</v>
       </c>
       <c r="E26" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
-        <v>116100</v>
-      </c>
       <c r="G26" s="3">
-        <v>19500</v>
+        <v>118600</v>
       </c>
       <c r="H26" s="3">
-        <v>99500</v>
+        <v>19900</v>
       </c>
       <c r="I26" s="3">
-        <v>77200</v>
+        <v>101700</v>
       </c>
       <c r="J26" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K26" s="3">
         <v>77300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-93800</v>
+        <v>8800</v>
       </c>
       <c r="E27" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
-        <v>116400</v>
-      </c>
       <c r="G27" s="3">
-        <v>19900</v>
+        <v>118900</v>
       </c>
       <c r="H27" s="3">
-        <v>99900</v>
+        <v>20300</v>
       </c>
       <c r="I27" s="3">
-        <v>77400</v>
+        <v>102000</v>
       </c>
       <c r="J27" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K27" s="3">
         <v>77700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="F32" s="3">
-        <v>6300</v>
+        <v>3600</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-93800</v>
+        <v>8800</v>
       </c>
       <c r="E33" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
-        <v>116400</v>
-      </c>
       <c r="G33" s="3">
-        <v>19900</v>
+        <v>118900</v>
       </c>
       <c r="H33" s="3">
-        <v>99900</v>
+        <v>20300</v>
       </c>
       <c r="I33" s="3">
-        <v>77400</v>
+        <v>102000</v>
       </c>
       <c r="J33" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K33" s="3">
         <v>77700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-93800</v>
+        <v>8800</v>
       </c>
       <c r="E35" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
-        <v>116400</v>
-      </c>
       <c r="G35" s="3">
-        <v>19900</v>
+        <v>118900</v>
       </c>
       <c r="H35" s="3">
-        <v>99900</v>
+        <v>20300</v>
       </c>
       <c r="I35" s="3">
-        <v>77400</v>
+        <v>102000</v>
       </c>
       <c r="J35" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K35" s="3">
         <v>77700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,54 +1621,58 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>226000</v>
+        <v>231700</v>
       </c>
       <c r="E41" s="3">
-        <v>238700</v>
+        <v>230800</v>
       </c>
       <c r="F41" s="3">
-        <v>293500</v>
+        <v>243700</v>
       </c>
       <c r="G41" s="3">
-        <v>265600</v>
+        <v>299700</v>
       </c>
       <c r="H41" s="3">
-        <v>295300</v>
+        <v>271300</v>
       </c>
       <c r="I41" s="3">
-        <v>177300</v>
+        <v>301600</v>
       </c>
       <c r="J41" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K41" s="3">
         <v>214100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19900</v>
+        <v>9400</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>20300</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>1400</v>
       </c>
-      <c r="G42" s="3">
-        <v>16700</v>
-      </c>
       <c r="H42" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="I42" s="3">
         <v>16500</v>
@@ -1591,213 +1681,237 @@
         <v>16800</v>
       </c>
       <c r="K42" s="3">
+        <v>16800</v>
+      </c>
+      <c r="L42" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>707400</v>
+        <v>580600</v>
       </c>
       <c r="E43" s="3">
-        <v>687800</v>
+        <v>722300</v>
       </c>
       <c r="F43" s="3">
-        <v>626600</v>
+        <v>702400</v>
       </c>
       <c r="G43" s="3">
-        <v>590000</v>
+        <v>639800</v>
       </c>
       <c r="H43" s="3">
-        <v>639600</v>
+        <v>602500</v>
       </c>
       <c r="I43" s="3">
-        <v>632800</v>
+        <v>653100</v>
       </c>
       <c r="J43" s="3">
+        <v>646200</v>
+      </c>
+      <c r="K43" s="3">
         <v>506000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>511800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38700</v>
+        <v>46200</v>
       </c>
       <c r="E44" s="3">
-        <v>41400</v>
+        <v>39500</v>
       </c>
       <c r="F44" s="3">
-        <v>46800</v>
+        <v>42300</v>
       </c>
       <c r="G44" s="3">
-        <v>45300</v>
+        <v>47800</v>
       </c>
       <c r="H44" s="3">
-        <v>53200</v>
+        <v>46200</v>
       </c>
       <c r="I44" s="3">
-        <v>50500</v>
+        <v>54400</v>
       </c>
       <c r="J44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K44" s="3">
         <v>50700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40200</v>
+        <v>108500</v>
       </c>
       <c r="E45" s="3">
-        <v>56300</v>
+        <v>41000</v>
       </c>
       <c r="F45" s="3">
-        <v>34900</v>
+        <v>57500</v>
       </c>
       <c r="G45" s="3">
-        <v>53600</v>
+        <v>35700</v>
       </c>
       <c r="H45" s="3">
-        <v>37700</v>
+        <v>54800</v>
       </c>
       <c r="I45" s="3">
-        <v>48300</v>
+        <v>38500</v>
       </c>
       <c r="J45" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K45" s="3">
         <v>49900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1032100</v>
+        <v>976400</v>
       </c>
       <c r="E46" s="3">
-        <v>1024200</v>
+        <v>1053900</v>
       </c>
       <c r="F46" s="3">
-        <v>1003200</v>
+        <v>1045900</v>
       </c>
       <c r="G46" s="3">
-        <v>971200</v>
+        <v>1024400</v>
       </c>
       <c r="H46" s="3">
-        <v>1042100</v>
+        <v>991700</v>
       </c>
       <c r="I46" s="3">
-        <v>925500</v>
+        <v>1064100</v>
       </c>
       <c r="J46" s="3">
+        <v>945100</v>
+      </c>
+      <c r="K46" s="3">
         <v>837500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>835900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85000</v>
+        <v>93300</v>
       </c>
       <c r="E47" s="3">
-        <v>84300</v>
+        <v>86800</v>
       </c>
       <c r="F47" s="3">
-        <v>84000</v>
+        <v>86100</v>
       </c>
       <c r="G47" s="3">
-        <v>81200</v>
+        <v>85700</v>
       </c>
       <c r="H47" s="3">
-        <v>76700</v>
+        <v>82900</v>
       </c>
       <c r="I47" s="3">
-        <v>76700</v>
+        <v>78300</v>
       </c>
       <c r="J47" s="3">
+        <v>78400</v>
+      </c>
+      <c r="K47" s="3">
         <v>39800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4333100</v>
+        <v>4526700</v>
       </c>
       <c r="E48" s="3">
-        <v>4434300</v>
+        <v>4424700</v>
       </c>
       <c r="F48" s="3">
-        <v>4379300</v>
+        <v>4528000</v>
       </c>
       <c r="G48" s="3">
-        <v>3982100</v>
+        <v>4471900</v>
       </c>
       <c r="H48" s="3">
-        <v>3796400</v>
+        <v>4066300</v>
       </c>
       <c r="I48" s="3">
-        <v>3835100</v>
+        <v>3876600</v>
       </c>
       <c r="J48" s="3">
+        <v>3916200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3750800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3822500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K49" s="3">
         <v>43000</v>
       </c>
-      <c r="E49" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>43000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>43000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>43000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>43000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>43000</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>76300</v>
+        <v>97800</v>
       </c>
       <c r="E52" s="3">
-        <v>50700</v>
+        <v>77900</v>
       </c>
       <c r="F52" s="3">
-        <v>42800</v>
+        <v>51800</v>
       </c>
       <c r="G52" s="3">
-        <v>331300</v>
+        <v>43700</v>
       </c>
       <c r="H52" s="3">
-        <v>313400</v>
+        <v>338300</v>
       </c>
       <c r="I52" s="3">
-        <v>313300</v>
+        <v>320100</v>
       </c>
       <c r="J52" s="3">
+        <v>319900</v>
+      </c>
+      <c r="K52" s="3">
         <v>260800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>260500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5569400</v>
+        <v>5738100</v>
       </c>
       <c r="E54" s="3">
-        <v>5636500</v>
+        <v>5687100</v>
       </c>
       <c r="F54" s="3">
-        <v>5552300</v>
+        <v>5755700</v>
       </c>
       <c r="G54" s="3">
-        <v>5408800</v>
+        <v>5669700</v>
       </c>
       <c r="H54" s="3">
-        <v>5271600</v>
+        <v>5523100</v>
       </c>
       <c r="I54" s="3">
-        <v>5193600</v>
+        <v>5383000</v>
       </c>
       <c r="J54" s="3">
+        <v>5303400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4931800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,51 +2097,55 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>259100</v>
+        <v>323600</v>
       </c>
       <c r="E57" s="3">
-        <v>235000</v>
+        <v>264500</v>
       </c>
       <c r="F57" s="3">
-        <v>210700</v>
+        <v>240000</v>
       </c>
       <c r="G57" s="3">
-        <v>220100</v>
+        <v>215100</v>
       </c>
       <c r="H57" s="3">
-        <v>170900</v>
+        <v>224800</v>
       </c>
       <c r="I57" s="3">
-        <v>202400</v>
+        <v>174500</v>
       </c>
       <c r="J57" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K57" s="3">
         <v>158800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>174000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8900</v>
+        <v>9700</v>
       </c>
       <c r="E58" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="F58" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+        <v>9100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2025,80 +2159,89 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>811500</v>
+        <v>781400</v>
       </c>
       <c r="E59" s="3">
-        <v>745600</v>
+        <v>828600</v>
       </c>
       <c r="F59" s="3">
-        <v>683500</v>
+        <v>761400</v>
       </c>
       <c r="G59" s="3">
-        <v>761100</v>
+        <v>698000</v>
       </c>
       <c r="H59" s="3">
-        <v>690800</v>
+        <v>777100</v>
       </c>
       <c r="I59" s="3">
-        <v>586700</v>
+        <v>705400</v>
       </c>
       <c r="J59" s="3">
+        <v>599100</v>
+      </c>
+      <c r="K59" s="3">
         <v>473200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>535600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1079500</v>
+        <v>1114700</v>
       </c>
       <c r="E60" s="3">
-        <v>989600</v>
+        <v>1102300</v>
       </c>
       <c r="F60" s="3">
-        <v>903100</v>
+        <v>1010500</v>
       </c>
       <c r="G60" s="3">
-        <v>981200</v>
+        <v>922200</v>
       </c>
       <c r="H60" s="3">
-        <v>861700</v>
+        <v>1001900</v>
       </c>
       <c r="I60" s="3">
-        <v>789100</v>
+        <v>879900</v>
       </c>
       <c r="J60" s="3">
+        <v>805800</v>
+      </c>
+      <c r="K60" s="3">
         <v>632000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>709600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>170700</v>
+        <v>205300</v>
       </c>
       <c r="E61" s="3">
-        <v>170800</v>
+        <v>174300</v>
       </c>
       <c r="F61" s="3">
-        <v>170900</v>
+        <v>174400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>174500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2112,37 +2255,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="E62" s="3">
-        <v>24300</v>
+        <v>26400</v>
       </c>
       <c r="F62" s="3">
-        <v>24500</v>
+        <v>24800</v>
       </c>
       <c r="G62" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="H62" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="I62" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="J62" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K62" s="3">
         <v>26600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1270700</v>
+        <v>1339800</v>
       </c>
       <c r="E66" s="3">
-        <v>1179100</v>
+        <v>1297500</v>
       </c>
       <c r="F66" s="3">
-        <v>1092700</v>
+        <v>1204000</v>
       </c>
       <c r="G66" s="3">
-        <v>1000700</v>
+        <v>1115800</v>
       </c>
       <c r="H66" s="3">
-        <v>883400</v>
+        <v>1021900</v>
       </c>
       <c r="I66" s="3">
-        <v>811200</v>
+        <v>902000</v>
       </c>
       <c r="J66" s="3">
+        <v>828300</v>
+      </c>
+      <c r="K66" s="3">
         <v>654500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>732600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2493,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1422200</v>
+        <v>1461000</v>
       </c>
       <c r="E72" s="3">
-        <v>1580900</v>
+        <v>1452200</v>
       </c>
       <c r="F72" s="3">
-        <v>1583000</v>
+        <v>1614300</v>
       </c>
       <c r="G72" s="3">
-        <v>1531500</v>
+        <v>1616500</v>
       </c>
       <c r="H72" s="3">
-        <v>1511600</v>
+        <v>1563900</v>
       </c>
       <c r="I72" s="3">
-        <v>1505900</v>
+        <v>1543600</v>
       </c>
       <c r="J72" s="3">
+        <v>1537700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1428500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1431100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4298700</v>
+        <v>4398400</v>
       </c>
       <c r="E76" s="3">
-        <v>4457500</v>
+        <v>4389600</v>
       </c>
       <c r="F76" s="3">
-        <v>4459600</v>
+        <v>4551700</v>
       </c>
       <c r="G76" s="3">
-        <v>4408100</v>
+        <v>4553800</v>
       </c>
       <c r="H76" s="3">
-        <v>4388200</v>
+        <v>4501200</v>
       </c>
       <c r="I76" s="3">
-        <v>4382400</v>
+        <v>4481000</v>
       </c>
       <c r="J76" s="3">
+        <v>4475100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4277200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4267600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-93800</v>
+        <v>8800</v>
       </c>
       <c r="E81" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
-        <v>116400</v>
-      </c>
       <c r="G81" s="3">
-        <v>19900</v>
+        <v>118900</v>
       </c>
       <c r="H81" s="3">
-        <v>99900</v>
+        <v>20300</v>
       </c>
       <c r="I81" s="3">
-        <v>77400</v>
+        <v>102000</v>
       </c>
       <c r="J81" s="3">
+        <v>79000</v>
+      </c>
+      <c r="K81" s="3">
         <v>77700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>80300</v>
+        <v>126400</v>
       </c>
       <c r="E89" s="3">
-        <v>157300</v>
+        <v>82000</v>
       </c>
       <c r="F89" s="3">
-        <v>208600</v>
+        <v>160700</v>
       </c>
       <c r="G89" s="3">
-        <v>275900</v>
+        <v>213000</v>
       </c>
       <c r="H89" s="3">
-        <v>222300</v>
+        <v>281800</v>
       </c>
       <c r="I89" s="3">
-        <v>212600</v>
+        <v>227000</v>
       </c>
       <c r="J89" s="3">
+        <v>217100</v>
+      </c>
+      <c r="K89" s="3">
         <v>189900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>146900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3072,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70500</v>
+        <v>-61100</v>
       </c>
       <c r="E91" s="3">
-        <v>-159800</v>
+        <v>-72000</v>
       </c>
       <c r="F91" s="3">
-        <v>-213200</v>
+        <v>-163100</v>
       </c>
       <c r="G91" s="3">
-        <v>-224400</v>
+        <v>-217700</v>
       </c>
       <c r="H91" s="3">
-        <v>-185600</v>
+        <v>-229100</v>
       </c>
       <c r="I91" s="3">
-        <v>-163900</v>
+        <v>-189500</v>
       </c>
       <c r="J91" s="3">
+        <v>-167300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-183500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-137400</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3166,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-88400</v>
+        <v>-54500</v>
       </c>
       <c r="E94" s="3">
-        <v>-138100</v>
+        <v>-90200</v>
       </c>
       <c r="F94" s="3">
-        <v>-180800</v>
+        <v>-141000</v>
       </c>
       <c r="G94" s="3">
-        <v>-218500</v>
+        <v>-184600</v>
       </c>
       <c r="H94" s="3">
-        <v>-104300</v>
+        <v>-223200</v>
       </c>
       <c r="I94" s="3">
-        <v>-162500</v>
+        <v>-106500</v>
       </c>
       <c r="J94" s="3">
+        <v>-165900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-183500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-132300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3214,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2990,28 +3224,31 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-64900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-66300</v>
       </c>
       <c r="G96" s="3">
-        <v>-86600</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-88400</v>
       </c>
       <c r="I96" s="3">
-        <v>-87000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-88800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-86200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,37 +3340,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4600</v>
+        <v>-71000</v>
       </c>
       <c r="E100" s="3">
-        <v>-74000</v>
+        <v>-4700</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-75600</v>
       </c>
       <c r="G100" s="3">
-        <v>-87100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-88900</v>
       </c>
       <c r="I100" s="3">
-        <v>-87000</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-88800</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-86200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,33 +3404,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12700</v>
+        <v>900</v>
       </c>
       <c r="E102" s="3">
-        <v>-54800</v>
+        <v>-12900</v>
       </c>
       <c r="F102" s="3">
-        <v>27900</v>
+        <v>-56000</v>
       </c>
       <c r="G102" s="3">
-        <v>-29700</v>
+        <v>28400</v>
       </c>
       <c r="H102" s="3">
-        <v>118000</v>
+        <v>-30300</v>
       </c>
       <c r="I102" s="3">
-        <v>-36800</v>
+        <v>120500</v>
       </c>
       <c r="J102" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-71600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GSHHY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GSHHY_QTR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1387300</v>
+        <v>1369300</v>
       </c>
       <c r="E8" s="3">
-        <v>1163400</v>
+        <v>1148200</v>
       </c>
       <c r="F8" s="3">
-        <v>1714800</v>
+        <v>1692500</v>
       </c>
       <c r="G8" s="3">
-        <v>1589300</v>
+        <v>1568600</v>
       </c>
       <c r="H8" s="3">
-        <v>1606900</v>
+        <v>1586000</v>
       </c>
       <c r="I8" s="3">
-        <v>1486400</v>
+        <v>1467100</v>
       </c>
       <c r="J8" s="3">
-        <v>1547500</v>
+        <v>1527400</v>
       </c>
       <c r="K8" s="3">
         <v>1285200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1554500</v>
+        <v>1534300</v>
       </c>
       <c r="E9" s="3">
-        <v>1282800</v>
+        <v>1266100</v>
       </c>
       <c r="F9" s="3">
-        <v>1704000</v>
+        <v>1681800</v>
       </c>
       <c r="G9" s="3">
-        <v>1428100</v>
+        <v>1409500</v>
       </c>
       <c r="H9" s="3">
-        <v>1560600</v>
+        <v>1540300</v>
       </c>
       <c r="I9" s="3">
-        <v>1350200</v>
+        <v>1332700</v>
       </c>
       <c r="J9" s="3">
-        <v>1433400</v>
+        <v>1414800</v>
       </c>
       <c r="K9" s="3">
         <v>1183200</v>
@@ -788,25 +788,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-167200</v>
+        <v>-165000</v>
       </c>
       <c r="E10" s="3">
-        <v>-119500</v>
+        <v>-117900</v>
       </c>
       <c r="F10" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="G10" s="3">
-        <v>161200</v>
+        <v>159100</v>
       </c>
       <c r="H10" s="3">
-        <v>46300</v>
+        <v>45700</v>
       </c>
       <c r="I10" s="3">
-        <v>136200</v>
+        <v>134400</v>
       </c>
       <c r="J10" s="3">
-        <v>114100</v>
+        <v>112600</v>
       </c>
       <c r="K10" s="3">
         <v>102000</v>
@@ -973,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1370300</v>
+        <v>1352400</v>
       </c>
       <c r="E17" s="3">
-        <v>1282200</v>
+        <v>1265500</v>
       </c>
       <c r="F17" s="3">
-        <v>1712400</v>
+        <v>1690100</v>
       </c>
       <c r="G17" s="3">
-        <v>1424200</v>
+        <v>1405700</v>
       </c>
       <c r="H17" s="3">
-        <v>1576400</v>
+        <v>1555900</v>
       </c>
       <c r="I17" s="3">
-        <v>1351200</v>
+        <v>1333600</v>
       </c>
       <c r="J17" s="3">
-        <v>1441600</v>
+        <v>1422800</v>
       </c>
       <c r="K17" s="3">
         <v>1182600</v>
@@ -1005,25 +1005,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="E18" s="3">
-        <v>-118800</v>
+        <v>-117300</v>
       </c>
       <c r="F18" s="3">
         <v>2300</v>
       </c>
       <c r="G18" s="3">
-        <v>165000</v>
+        <v>162900</v>
       </c>
       <c r="H18" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="I18" s="3">
-        <v>135200</v>
+        <v>133500</v>
       </c>
       <c r="J18" s="3">
-        <v>105900</v>
+        <v>104600</v>
       </c>
       <c r="K18" s="3">
         <v>102600</v>
@@ -1054,13 +1054,13 @@
         <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1083,25 +1083,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="E21" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="F21" s="3">
         <v>700</v>
       </c>
       <c r="G21" s="3">
-        <v>290500</v>
+        <v>286700</v>
       </c>
       <c r="H21" s="3">
-        <v>36400</v>
+        <v>35900</v>
       </c>
       <c r="I21" s="3">
-        <v>258800</v>
+        <v>255500</v>
       </c>
       <c r="J21" s="3">
-        <v>90100</v>
+        <v>88900</v>
       </c>
       <c r="K21" s="3">
         <v>237200</v>
@@ -1147,25 +1147,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="E23" s="3">
-        <v>-122600</v>
+        <v>-121000</v>
       </c>
       <c r="F23" s="3">
         <v>-1200</v>
       </c>
       <c r="G23" s="3">
-        <v>158600</v>
+        <v>156600</v>
       </c>
       <c r="H23" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="I23" s="3">
-        <v>136200</v>
+        <v>134500</v>
       </c>
       <c r="J23" s="3">
-        <v>105200</v>
+        <v>103800</v>
       </c>
       <c r="K23" s="3">
         <v>102800</v>
@@ -1179,25 +1179,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="E24" s="3">
-        <v>-27000</v>
+        <v>-26600</v>
       </c>
       <c r="F24" s="3">
         <v>700</v>
       </c>
       <c r="G24" s="3">
-        <v>40100</v>
+        <v>39500</v>
       </c>
       <c r="H24" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I24" s="3">
-        <v>34600</v>
+        <v>34100</v>
       </c>
       <c r="J24" s="3">
-        <v>26300</v>
+        <v>26000</v>
       </c>
       <c r="K24" s="3">
         <v>25500</v>
@@ -1243,25 +1243,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="E26" s="3">
-        <v>-95600</v>
+        <v>-94400</v>
       </c>
       <c r="F26" s="3">
         <v>-1900</v>
       </c>
       <c r="G26" s="3">
-        <v>118600</v>
+        <v>117000</v>
       </c>
       <c r="H26" s="3">
-        <v>19900</v>
+        <v>19600</v>
       </c>
       <c r="I26" s="3">
-        <v>101700</v>
+        <v>100300</v>
       </c>
       <c r="J26" s="3">
-        <v>78900</v>
+        <v>77800</v>
       </c>
       <c r="K26" s="3">
         <v>77300</v>
@@ -1275,25 +1275,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="E27" s="3">
-        <v>-95800</v>
+        <v>-94500</v>
       </c>
       <c r="F27" s="3">
         <v>-2100</v>
       </c>
       <c r="G27" s="3">
-        <v>118900</v>
+        <v>117400</v>
       </c>
       <c r="H27" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="I27" s="3">
-        <v>102000</v>
+        <v>100700</v>
       </c>
       <c r="J27" s="3">
-        <v>79000</v>
+        <v>78000</v>
       </c>
       <c r="K27" s="3">
         <v>77700</v>
@@ -1438,13 +1438,13 @@
         <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="F32" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1467,25 +1467,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="E33" s="3">
-        <v>-95800</v>
+        <v>-94500</v>
       </c>
       <c r="F33" s="3">
         <v>-2100</v>
       </c>
       <c r="G33" s="3">
-        <v>118900</v>
+        <v>117400</v>
       </c>
       <c r="H33" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="I33" s="3">
-        <v>102000</v>
+        <v>100700</v>
       </c>
       <c r="J33" s="3">
-        <v>79000</v>
+        <v>78000</v>
       </c>
       <c r="K33" s="3">
         <v>77700</v>
@@ -1531,25 +1531,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="E35" s="3">
-        <v>-95800</v>
+        <v>-94500</v>
       </c>
       <c r="F35" s="3">
         <v>-2100</v>
       </c>
       <c r="G35" s="3">
-        <v>118900</v>
+        <v>117400</v>
       </c>
       <c r="H35" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="I35" s="3">
-        <v>102000</v>
+        <v>100700</v>
       </c>
       <c r="J35" s="3">
-        <v>79000</v>
+        <v>78000</v>
       </c>
       <c r="K35" s="3">
         <v>77700</v>
@@ -1628,25 +1628,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>231700</v>
+        <v>228700</v>
       </c>
       <c r="E41" s="3">
-        <v>230800</v>
+        <v>227800</v>
       </c>
       <c r="F41" s="3">
-        <v>243700</v>
+        <v>240600</v>
       </c>
       <c r="G41" s="3">
-        <v>299700</v>
+        <v>295800</v>
       </c>
       <c r="H41" s="3">
-        <v>271300</v>
+        <v>267700</v>
       </c>
       <c r="I41" s="3">
-        <v>301600</v>
+        <v>297700</v>
       </c>
       <c r="J41" s="3">
-        <v>181100</v>
+        <v>178700</v>
       </c>
       <c r="K41" s="3">
         <v>214100</v>
@@ -1660,10 +1660,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="E42" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1672,13 +1672,13 @@
         <v>1400</v>
       </c>
       <c r="H42" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I42" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="J42" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="K42" s="3">
         <v>16800</v>
@@ -1692,25 +1692,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>580600</v>
+        <v>573100</v>
       </c>
       <c r="E43" s="3">
-        <v>722300</v>
+        <v>712900</v>
       </c>
       <c r="F43" s="3">
-        <v>702400</v>
+        <v>693200</v>
       </c>
       <c r="G43" s="3">
-        <v>639800</v>
+        <v>631500</v>
       </c>
       <c r="H43" s="3">
-        <v>602500</v>
+        <v>594600</v>
       </c>
       <c r="I43" s="3">
-        <v>653100</v>
+        <v>644600</v>
       </c>
       <c r="J43" s="3">
-        <v>646200</v>
+        <v>637800</v>
       </c>
       <c r="K43" s="3">
         <v>506000</v>
@@ -1724,25 +1724,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>46200</v>
+        <v>45600</v>
       </c>
       <c r="E44" s="3">
-        <v>39500</v>
+        <v>39000</v>
       </c>
       <c r="F44" s="3">
-        <v>42300</v>
+        <v>41800</v>
       </c>
       <c r="G44" s="3">
-        <v>47800</v>
+        <v>47200</v>
       </c>
       <c r="H44" s="3">
-        <v>46200</v>
+        <v>45600</v>
       </c>
       <c r="I44" s="3">
-        <v>54400</v>
+        <v>53600</v>
       </c>
       <c r="J44" s="3">
-        <v>51600</v>
+        <v>50900</v>
       </c>
       <c r="K44" s="3">
         <v>50700</v>
@@ -1756,25 +1756,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>108500</v>
+        <v>107100</v>
       </c>
       <c r="E45" s="3">
-        <v>41000</v>
+        <v>40500</v>
       </c>
       <c r="F45" s="3">
-        <v>57500</v>
+        <v>56700</v>
       </c>
       <c r="G45" s="3">
-        <v>35700</v>
+        <v>35200</v>
       </c>
       <c r="H45" s="3">
-        <v>54800</v>
+        <v>54100</v>
       </c>
       <c r="I45" s="3">
-        <v>38500</v>
+        <v>38000</v>
       </c>
       <c r="J45" s="3">
-        <v>49400</v>
+        <v>48700</v>
       </c>
       <c r="K45" s="3">
         <v>49900</v>
@@ -1788,25 +1788,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>976400</v>
+        <v>963700</v>
       </c>
       <c r="E46" s="3">
-        <v>1053900</v>
+        <v>1040200</v>
       </c>
       <c r="F46" s="3">
-        <v>1045900</v>
+        <v>1032300</v>
       </c>
       <c r="G46" s="3">
-        <v>1024400</v>
+        <v>1011100</v>
       </c>
       <c r="H46" s="3">
-        <v>991700</v>
+        <v>978800</v>
       </c>
       <c r="I46" s="3">
-        <v>1064100</v>
+        <v>1050300</v>
       </c>
       <c r="J46" s="3">
-        <v>945100</v>
+        <v>932800</v>
       </c>
       <c r="K46" s="3">
         <v>837500</v>
@@ -1820,25 +1820,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>93300</v>
+        <v>92100</v>
       </c>
       <c r="E47" s="3">
-        <v>86800</v>
+        <v>85600</v>
       </c>
       <c r="F47" s="3">
-        <v>86100</v>
+        <v>85000</v>
       </c>
       <c r="G47" s="3">
-        <v>85700</v>
+        <v>84600</v>
       </c>
       <c r="H47" s="3">
-        <v>82900</v>
+        <v>81800</v>
       </c>
       <c r="I47" s="3">
-        <v>78300</v>
+        <v>77300</v>
       </c>
       <c r="J47" s="3">
-        <v>78400</v>
+        <v>77300</v>
       </c>
       <c r="K47" s="3">
         <v>39800</v>
@@ -1852,25 +1852,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4526700</v>
+        <v>4467800</v>
       </c>
       <c r="E48" s="3">
-        <v>4424700</v>
+        <v>4367100</v>
       </c>
       <c r="F48" s="3">
-        <v>4528000</v>
+        <v>4469100</v>
       </c>
       <c r="G48" s="3">
-        <v>4471900</v>
+        <v>4413700</v>
       </c>
       <c r="H48" s="3">
-        <v>4066300</v>
+        <v>4013400</v>
       </c>
       <c r="I48" s="3">
-        <v>3876600</v>
+        <v>3826200</v>
       </c>
       <c r="J48" s="3">
-        <v>3916200</v>
+        <v>3865200</v>
       </c>
       <c r="K48" s="3">
         <v>3750800</v>
@@ -1884,25 +1884,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="E49" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="F49" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="G49" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="H49" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="I49" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="J49" s="3">
-        <v>43900</v>
+        <v>43300</v>
       </c>
       <c r="K49" s="3">
         <v>43000</v>
@@ -1980,25 +1980,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>97800</v>
+        <v>96500</v>
       </c>
       <c r="E52" s="3">
-        <v>77900</v>
+        <v>76900</v>
       </c>
       <c r="F52" s="3">
-        <v>51800</v>
+        <v>51100</v>
       </c>
       <c r="G52" s="3">
-        <v>43700</v>
+        <v>43200</v>
       </c>
       <c r="H52" s="3">
-        <v>338300</v>
+        <v>333900</v>
       </c>
       <c r="I52" s="3">
-        <v>320100</v>
+        <v>315900</v>
       </c>
       <c r="J52" s="3">
-        <v>319900</v>
+        <v>315800</v>
       </c>
       <c r="K52" s="3">
         <v>260800</v>
@@ -2044,25 +2044,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5738100</v>
+        <v>5663500</v>
       </c>
       <c r="E54" s="3">
-        <v>5687100</v>
+        <v>5613100</v>
       </c>
       <c r="F54" s="3">
-        <v>5755700</v>
+        <v>5680800</v>
       </c>
       <c r="G54" s="3">
-        <v>5669700</v>
+        <v>5595900</v>
       </c>
       <c r="H54" s="3">
-        <v>5523100</v>
+        <v>5451200</v>
       </c>
       <c r="I54" s="3">
-        <v>5383000</v>
+        <v>5313000</v>
       </c>
       <c r="J54" s="3">
-        <v>5303400</v>
+        <v>5234400</v>
       </c>
       <c r="K54" s="3">
         <v>4931800</v>
@@ -2104,25 +2104,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>323600</v>
+        <v>319300</v>
       </c>
       <c r="E57" s="3">
-        <v>264500</v>
+        <v>261100</v>
       </c>
       <c r="F57" s="3">
-        <v>240000</v>
+        <v>236800</v>
       </c>
       <c r="G57" s="3">
-        <v>215100</v>
+        <v>212300</v>
       </c>
       <c r="H57" s="3">
-        <v>224800</v>
+        <v>221900</v>
       </c>
       <c r="I57" s="3">
-        <v>174500</v>
+        <v>172200</v>
       </c>
       <c r="J57" s="3">
-        <v>206700</v>
+        <v>204000</v>
       </c>
       <c r="K57" s="3">
         <v>158800</v>
@@ -2136,16 +2136,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="E58" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="G58" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2168,25 +2168,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>781400</v>
+        <v>771300</v>
       </c>
       <c r="E59" s="3">
-        <v>828600</v>
+        <v>817900</v>
       </c>
       <c r="F59" s="3">
-        <v>761400</v>
+        <v>751500</v>
       </c>
       <c r="G59" s="3">
-        <v>698000</v>
+        <v>688900</v>
       </c>
       <c r="H59" s="3">
-        <v>777100</v>
+        <v>767000</v>
       </c>
       <c r="I59" s="3">
-        <v>705400</v>
+        <v>696200</v>
       </c>
       <c r="J59" s="3">
-        <v>599100</v>
+        <v>591300</v>
       </c>
       <c r="K59" s="3">
         <v>473200</v>
@@ -2200,25 +2200,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1114700</v>
+        <v>1100100</v>
       </c>
       <c r="E60" s="3">
-        <v>1102300</v>
+        <v>1088000</v>
       </c>
       <c r="F60" s="3">
-        <v>1010500</v>
+        <v>997300</v>
       </c>
       <c r="G60" s="3">
-        <v>922200</v>
+        <v>910200</v>
       </c>
       <c r="H60" s="3">
-        <v>1001900</v>
+        <v>988900</v>
       </c>
       <c r="I60" s="3">
-        <v>879900</v>
+        <v>868500</v>
       </c>
       <c r="J60" s="3">
-        <v>805800</v>
+        <v>795300</v>
       </c>
       <c r="K60" s="3">
         <v>632000</v>
@@ -2232,16 +2232,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>205300</v>
+        <v>202600</v>
       </c>
       <c r="E61" s="3">
-        <v>174300</v>
+        <v>172100</v>
       </c>
       <c r="F61" s="3">
-        <v>174400</v>
+        <v>172100</v>
       </c>
       <c r="G61" s="3">
-        <v>174500</v>
+        <v>172200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2264,25 +2264,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25600</v>
+        <v>25200</v>
       </c>
       <c r="E62" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="F62" s="3">
-        <v>24800</v>
+        <v>24500</v>
       </c>
       <c r="G62" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="H62" s="3">
-        <v>25500</v>
+        <v>25200</v>
       </c>
       <c r="I62" s="3">
-        <v>26800</v>
+        <v>26500</v>
       </c>
       <c r="J62" s="3">
-        <v>26900</v>
+        <v>26500</v>
       </c>
       <c r="K62" s="3">
         <v>26600</v>
@@ -2392,25 +2392,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1339800</v>
+        <v>1322300</v>
       </c>
       <c r="E66" s="3">
-        <v>1297500</v>
+        <v>1280600</v>
       </c>
       <c r="F66" s="3">
-        <v>1204000</v>
+        <v>1188300</v>
       </c>
       <c r="G66" s="3">
-        <v>1115800</v>
+        <v>1101300</v>
       </c>
       <c r="H66" s="3">
-        <v>1021900</v>
+        <v>1008600</v>
       </c>
       <c r="I66" s="3">
-        <v>902000</v>
+        <v>890300</v>
       </c>
       <c r="J66" s="3">
-        <v>828300</v>
+        <v>817600</v>
       </c>
       <c r="K66" s="3">
         <v>654500</v>
@@ -2566,25 +2566,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1461000</v>
+        <v>1442000</v>
       </c>
       <c r="E72" s="3">
-        <v>1452200</v>
+        <v>1433300</v>
       </c>
       <c r="F72" s="3">
-        <v>1614300</v>
+        <v>1593300</v>
       </c>
       <c r="G72" s="3">
-        <v>1616500</v>
+        <v>1595400</v>
       </c>
       <c r="H72" s="3">
-        <v>1563900</v>
+        <v>1543500</v>
       </c>
       <c r="I72" s="3">
-        <v>1543600</v>
+        <v>1523500</v>
       </c>
       <c r="J72" s="3">
-        <v>1537700</v>
+        <v>1517700</v>
       </c>
       <c r="K72" s="3">
         <v>1428500</v>
@@ -2694,25 +2694,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4398400</v>
+        <v>4341100</v>
       </c>
       <c r="E76" s="3">
-        <v>4389600</v>
+        <v>4332500</v>
       </c>
       <c r="F76" s="3">
-        <v>4551700</v>
+        <v>4492500</v>
       </c>
       <c r="G76" s="3">
-        <v>4553800</v>
+        <v>4494600</v>
       </c>
       <c r="H76" s="3">
-        <v>4501200</v>
+        <v>4442700</v>
       </c>
       <c r="I76" s="3">
-        <v>4481000</v>
+        <v>4422700</v>
       </c>
       <c r="J76" s="3">
-        <v>4475100</v>
+        <v>4416900</v>
       </c>
       <c r="K76" s="3">
         <v>4277200</v>
@@ -2795,25 +2795,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="E81" s="3">
-        <v>-95800</v>
+        <v>-94500</v>
       </c>
       <c r="F81" s="3">
         <v>-2100</v>
       </c>
       <c r="G81" s="3">
-        <v>118900</v>
+        <v>117400</v>
       </c>
       <c r="H81" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="I81" s="3">
-        <v>102000</v>
+        <v>100700</v>
       </c>
       <c r="J81" s="3">
-        <v>79000</v>
+        <v>78000</v>
       </c>
       <c r="K81" s="3">
         <v>77700</v>
@@ -3033,25 +3033,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>126400</v>
+        <v>124800</v>
       </c>
       <c r="E89" s="3">
-        <v>82000</v>
+        <v>81000</v>
       </c>
       <c r="F89" s="3">
-        <v>160700</v>
+        <v>158600</v>
       </c>
       <c r="G89" s="3">
-        <v>213000</v>
+        <v>210200</v>
       </c>
       <c r="H89" s="3">
-        <v>281800</v>
+        <v>278100</v>
       </c>
       <c r="I89" s="3">
-        <v>227000</v>
+        <v>224100</v>
       </c>
       <c r="J89" s="3">
-        <v>217100</v>
+        <v>214300</v>
       </c>
       <c r="K89" s="3">
         <v>189900</v>
@@ -3079,25 +3079,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61100</v>
+        <v>-60300</v>
       </c>
       <c r="E91" s="3">
-        <v>-72000</v>
+        <v>-71100</v>
       </c>
       <c r="F91" s="3">
-        <v>-163100</v>
+        <v>-161000</v>
       </c>
       <c r="G91" s="3">
-        <v>-217700</v>
+        <v>-214900</v>
       </c>
       <c r="H91" s="3">
-        <v>-229100</v>
+        <v>-226100</v>
       </c>
       <c r="I91" s="3">
-        <v>-189500</v>
+        <v>-187000</v>
       </c>
       <c r="J91" s="3">
-        <v>-167300</v>
+        <v>-165100</v>
       </c>
       <c r="K91" s="3">
         <v>-183500</v>
@@ -3175,25 +3175,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-54500</v>
+        <v>-53800</v>
       </c>
       <c r="E94" s="3">
-        <v>-90200</v>
+        <v>-89100</v>
       </c>
       <c r="F94" s="3">
-        <v>-141000</v>
+        <v>-139200</v>
       </c>
       <c r="G94" s="3">
-        <v>-184600</v>
+        <v>-182200</v>
       </c>
       <c r="H94" s="3">
-        <v>-223200</v>
+        <v>-220300</v>
       </c>
       <c r="I94" s="3">
-        <v>-106500</v>
+        <v>-105100</v>
       </c>
       <c r="J94" s="3">
-        <v>-165900</v>
+        <v>-163700</v>
       </c>
       <c r="K94" s="3">
         <v>-183500</v>
@@ -3227,19 +3227,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-66300</v>
+        <v>-65400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-88400</v>
+        <v>-87300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-88800</v>
+        <v>-87700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3349,25 +3349,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71000</v>
+        <v>-70100</v>
       </c>
       <c r="E100" s="3">
         <v>-4700</v>
       </c>
       <c r="F100" s="3">
-        <v>-75600</v>
+        <v>-74600</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-88900</v>
+        <v>-87800</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-88800</v>
+        <v>-87700</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3416,22 +3416,22 @@
         <v>900</v>
       </c>
       <c r="E102" s="3">
-        <v>-12900</v>
+        <v>-12800</v>
       </c>
       <c r="F102" s="3">
-        <v>-56000</v>
+        <v>-55200</v>
       </c>
       <c r="G102" s="3">
-        <v>28400</v>
+        <v>28100</v>
       </c>
       <c r="H102" s="3">
-        <v>-30300</v>
+        <v>-29900</v>
       </c>
       <c r="I102" s="3">
-        <v>120500</v>
+        <v>119000</v>
       </c>
       <c r="J102" s="3">
-        <v>-37600</v>
+        <v>-37100</v>
       </c>
       <c r="K102" s="3">
         <v>6400</v>
